--- a/Code/Results/Cases/Case_5_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9946597993313802</v>
+        <v>1.047608429025024</v>
       </c>
       <c r="D2">
-        <v>1.011769781503683</v>
+        <v>1.044381863062638</v>
       </c>
       <c r="E2">
-        <v>1.007413174410074</v>
+        <v>1.054068460966527</v>
       </c>
       <c r="F2">
-        <v>1.00968315953563</v>
+        <v>1.062642762355889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03921495774597</v>
+        <v>1.034920297112269</v>
       </c>
       <c r="J2">
-        <v>1.017001416575663</v>
+        <v>1.052656590605688</v>
       </c>
       <c r="K2">
-        <v>1.023067544127124</v>
+        <v>1.047153071356502</v>
       </c>
       <c r="L2">
-        <v>1.018770189084567</v>
+        <v>1.056812690318958</v>
       </c>
       <c r="M2">
-        <v>1.021009220976926</v>
+        <v>1.065363555061269</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002664995299846</v>
+        <v>1.049185259509894</v>
       </c>
       <c r="D3">
-        <v>1.017497598327999</v>
+        <v>1.045511126727465</v>
       </c>
       <c r="E3">
-        <v>1.014480393005854</v>
+        <v>1.055514147769661</v>
       </c>
       <c r="F3">
-        <v>1.017555444765264</v>
+        <v>1.064273750346214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041179769785447</v>
+        <v>1.035215496809748</v>
       </c>
       <c r="J3">
-        <v>1.023083272566631</v>
+        <v>1.053878881405362</v>
       </c>
       <c r="K3">
-        <v>1.027911384238565</v>
+        <v>1.048092731787553</v>
       </c>
       <c r="L3">
-        <v>1.024931287341661</v>
+        <v>1.058069929759843</v>
       </c>
       <c r="M3">
-        <v>1.027968521899882</v>
+        <v>1.066807348783989</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007680408613944</v>
+        <v>1.050203793147684</v>
       </c>
       <c r="D4">
-        <v>1.021088352699286</v>
+        <v>1.046240063579248</v>
       </c>
       <c r="E4">
-        <v>1.018914895338835</v>
+        <v>1.056448248816177</v>
       </c>
       <c r="F4">
-        <v>1.022496947847721</v>
+        <v>1.065327974101146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042397341031819</v>
+        <v>1.035404403034406</v>
       </c>
       <c r="J4">
-        <v>1.026889668519867</v>
+        <v>1.054667647215959</v>
       </c>
       <c r="K4">
-        <v>1.030938751700814</v>
+        <v>1.048698405076114</v>
       </c>
       <c r="L4">
-        <v>1.028790270778335</v>
+        <v>1.058881578580478</v>
       </c>
       <c r="M4">
-        <v>1.032331229850171</v>
+        <v>1.067739965838105</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009751872319962</v>
+        <v>1.050631567642782</v>
       </c>
       <c r="D5">
-        <v>1.022571775396104</v>
+        <v>1.046546089941671</v>
       </c>
       <c r="E5">
-        <v>1.020747956679327</v>
+        <v>1.05684062825651</v>
       </c>
       <c r="F5">
-        <v>1.024540059879893</v>
+        <v>1.065770907049535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042896924804695</v>
+        <v>1.035483316578883</v>
       </c>
       <c r="J5">
-        <v>1.028460744401017</v>
+        <v>1.054998739537171</v>
       </c>
       <c r="K5">
-        <v>1.032187235033084</v>
+        <v>1.048952472852035</v>
       </c>
       <c r="L5">
-        <v>1.03038376998362</v>
+        <v>1.059222355373945</v>
       </c>
       <c r="M5">
-        <v>1.034133653605141</v>
+        <v>1.068131659719771</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01009757424194</v>
+        <v>1.050703368677852</v>
       </c>
       <c r="D6">
-        <v>1.022819358181254</v>
+        <v>1.046597448723947</v>
       </c>
       <c r="E6">
-        <v>1.021053959275744</v>
+        <v>1.056906492147342</v>
       </c>
       <c r="F6">
-        <v>1.024881156210774</v>
+        <v>1.065845262291988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042980103144034</v>
+        <v>1.03549653709225</v>
       </c>
       <c r="J6">
-        <v>1.028722874365594</v>
+        <v>1.055054301994996</v>
       </c>
       <c r="K6">
-        <v>1.032395478200122</v>
+        <v>1.048995099423451</v>
       </c>
       <c r="L6">
-        <v>1.030649683470092</v>
+        <v>1.05927954767925</v>
       </c>
       <c r="M6">
-        <v>1.034434485722161</v>
+        <v>1.068197404894331</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007708230098159</v>
+        <v>1.050209510718585</v>
       </c>
       <c r="D7">
-        <v>1.021108275021935</v>
+        <v>1.046244154356771</v>
       </c>
       <c r="E7">
-        <v>1.018939508960409</v>
+        <v>1.056453493044084</v>
       </c>
       <c r="F7">
-        <v>1.022524380023975</v>
+        <v>1.065333893614205</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042404064011312</v>
+        <v>1.03540545945365</v>
       </c>
       <c r="J7">
-        <v>1.026910773596608</v>
+        <v>1.054672073262721</v>
       </c>
       <c r="K7">
-        <v>1.030955527444419</v>
+        <v>1.04870180212539</v>
       </c>
       <c r="L7">
-        <v>1.028811674234848</v>
+        <v>1.058886133778266</v>
       </c>
       <c r="M7">
-        <v>1.032355435861139</v>
+        <v>1.067745201147536</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974007427758314</v>
+        <v>1.048141700714155</v>
       </c>
       <c r="D8">
-        <v>1.013730408062964</v>
+        <v>1.044763873339296</v>
       </c>
       <c r="E8">
-        <v>1.009831470914419</v>
+        <v>1.054557322826591</v>
       </c>
       <c r="F8">
-        <v>1.012376570186971</v>
+        <v>1.063194202664956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039890489248288</v>
+        <v>1.035020498834129</v>
       </c>
       <c r="J8">
-        <v>1.019084613573651</v>
+        <v>1.053070116452544</v>
       </c>
       <c r="K8">
-        <v>1.024727549557761</v>
+        <v>1.047471123740856</v>
       </c>
       <c r="L8">
-        <v>1.020879895363548</v>
+        <v>1.057237971592182</v>
       </c>
       <c r="M8">
-        <v>1.02339146267789</v>
+        <v>1.065851830979738</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9778588428438154</v>
+        <v>1.044483893126027</v>
       </c>
       <c r="D9">
-        <v>0.9997681815515141</v>
+        <v>1.04214160373407</v>
       </c>
       <c r="E9">
-        <v>0.9926237194216928</v>
+        <v>1.051205302516635</v>
       </c>
       <c r="F9">
-        <v>0.99321764158668</v>
+        <v>1.059414704751302</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035019331257073</v>
+        <v>1.034325917899638</v>
       </c>
       <c r="J9">
-        <v>1.004218441456157</v>
+        <v>1.050230572266004</v>
       </c>
       <c r="K9">
-        <v>1.012865020968281</v>
+        <v>1.045284276116232</v>
       </c>
       <c r="L9">
-        <v>1.005837616145551</v>
+        <v>1.054319063610507</v>
       </c>
       <c r="M9">
-        <v>1.006421724703832</v>
+        <v>1.062502746099586</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9637133303824722</v>
+        <v>1.042035309320701</v>
       </c>
       <c r="D10">
-        <v>0.9896913434978065</v>
+        <v>1.040383773376753</v>
       </c>
       <c r="E10">
-        <v>0.9802170646894942</v>
+        <v>1.048962920825392</v>
       </c>
       <c r="F10">
-        <v>0.979410500004692</v>
+        <v>1.056888366954754</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031427031472719</v>
+        <v>1.033851825778358</v>
       </c>
       <c r="J10">
-        <v>0.9934444679866082</v>
+        <v>1.048325875183271</v>
       </c>
       <c r="K10">
-        <v>1.004249252247651</v>
+        <v>1.043813782017492</v>
       </c>
       <c r="L10">
-        <v>0.9949529350239831</v>
+        <v>1.052362834888256</v>
       </c>
       <c r="M10">
-        <v>0.9941617286201122</v>
+        <v>1.060260957184982</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9572718798214097</v>
+        <v>1.040972530728777</v>
       </c>
       <c r="D11">
-        <v>0.9851129788614682</v>
+        <v>1.039620244514013</v>
       </c>
       <c r="E11">
-        <v>0.9745813249718436</v>
+        <v>1.047990008384568</v>
       </c>
       <c r="F11">
-        <v>0.9731393588913875</v>
+        <v>1.055792726526435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029776963899509</v>
+        <v>1.033643892218008</v>
       </c>
       <c r="J11">
-        <v>0.9885369424245174</v>
+        <v>1.047498253127325</v>
       </c>
       <c r="K11">
-        <v>1.000321211482386</v>
+        <v>1.043173978901835</v>
       </c>
       <c r="L11">
-        <v>0.9899990658952322</v>
+        <v>1.05151322477629</v>
       </c>
       <c r="M11">
-        <v>0.988586250097747</v>
+        <v>1.059287973336831</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9548265394202835</v>
+        <v>1.040577376525442</v>
       </c>
       <c r="D12">
-        <v>0.9833767836591567</v>
+        <v>1.039336271838596</v>
       </c>
       <c r="E12">
-        <v>0.9724441543433959</v>
+        <v>1.047628323429212</v>
       </c>
       <c r="F12">
-        <v>0.9707612774307197</v>
+        <v>1.055385487652794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029148562889359</v>
+        <v>1.033566256014586</v>
       </c>
       <c r="J12">
-        <v>0.9866738821711535</v>
+        <v>1.047190396723542</v>
       </c>
       <c r="K12">
-        <v>0.9988295415236916</v>
+        <v>1.04293585979148</v>
       </c>
       <c r="L12">
-        <v>0.9881190327014577</v>
+        <v>1.051197249847286</v>
       </c>
       <c r="M12">
-        <v>0.9864709340012618</v>
+        <v>1.058926212176779</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9553535497111824</v>
+        <v>1.040662156318248</v>
       </c>
       <c r="D13">
-        <v>0.9837508718550361</v>
+        <v>1.039397201528774</v>
       </c>
       <c r="E13">
-        <v>0.9729046415147484</v>
+        <v>1.047705919898048</v>
       </c>
       <c r="F13">
-        <v>0.9712736718897712</v>
+        <v>1.055472854133085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029284080809927</v>
+        <v>1.033582927404178</v>
       </c>
       <c r="J13">
-        <v>0.9870754004270224</v>
+        <v>1.047256453051141</v>
       </c>
       <c r="K13">
-        <v>0.999151038534913</v>
+        <v>1.042986958421982</v>
       </c>
       <c r="L13">
-        <v>0.9885241807586829</v>
+        <v>1.051265045418319</v>
       </c>
       <c r="M13">
-        <v>0.9869267580116465</v>
+        <v>1.05900382724623</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9570708549993071</v>
+        <v>1.040939875200263</v>
       </c>
       <c r="D14">
-        <v>0.9849702111050377</v>
+        <v>1.039596778711433</v>
       </c>
       <c r="E14">
-        <v>0.9744055860001372</v>
+        <v>1.047960117608603</v>
       </c>
       <c r="F14">
-        <v>0.9729438094299591</v>
+        <v>1.055759069589815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029725344221126</v>
+        <v>1.033637482968276</v>
       </c>
       <c r="J14">
-        <v>0.9883837849822081</v>
+        <v>1.047472814662096</v>
       </c>
       <c r="K14">
-        <v>1.000198593799324</v>
+        <v>1.043154305482135</v>
       </c>
       <c r="L14">
-        <v>0.9898445005313212</v>
+        <v>1.051487114235841</v>
       </c>
       <c r="M14">
-        <v>0.9884123286954923</v>
+        <v>1.059258077277501</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9581217922122564</v>
+        <v>1.041110934824776</v>
       </c>
       <c r="D15">
-        <v>0.9857166642204026</v>
+        <v>1.039719696348988</v>
       </c>
       <c r="E15">
-        <v>0.9753244261290851</v>
+        <v>1.048116696908854</v>
       </c>
       <c r="F15">
-        <v>0.9739662288106958</v>
+        <v>1.055935380375001</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029995126641667</v>
+        <v>1.033671043316778</v>
       </c>
       <c r="J15">
-        <v>0.9891844759782117</v>
+        <v>1.047606063530184</v>
       </c>
       <c r="K15">
-        <v>1.000839608198133</v>
+        <v>1.043257351349839</v>
       </c>
       <c r="L15">
-        <v>0.9906525772314627</v>
+        <v>1.051623885968627</v>
       </c>
       <c r="M15">
-        <v>0.989321625003291</v>
+        <v>1.059414682219369</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9641337392997781</v>
+        <v>1.042105788246933</v>
       </c>
       <c r="D16">
-        <v>0.9899903948475971</v>
+        <v>1.040434395603407</v>
       </c>
       <c r="E16">
-        <v>0.9805851918914826</v>
+        <v>1.049027448000087</v>
       </c>
       <c r="F16">
-        <v>0.9798201418631964</v>
+        <v>1.056961043845565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031534443083418</v>
+        <v>1.03386556962877</v>
       </c>
       <c r="J16">
-        <v>0.9937647487761561</v>
+        <v>1.04838074040696</v>
       </c>
       <c r="K16">
-        <v>1.004505541648846</v>
+        <v>1.043856178411661</v>
       </c>
       <c r="L16">
-        <v>0.9952763251776797</v>
+        <v>1.052419166237335</v>
       </c>
       <c r="M16">
-        <v>0.994525784763029</v>
+        <v>1.060325482153172</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9678167656767918</v>
+        <v>1.042729149265117</v>
       </c>
       <c r="D17">
-        <v>0.9926114540679353</v>
+        <v>1.040882066338727</v>
       </c>
       <c r="E17">
-        <v>0.9838117842459964</v>
+        <v>1.049598210293363</v>
       </c>
       <c r="F17">
-        <v>0.9834106846891283</v>
+        <v>1.057603947419795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032473845788375</v>
+        <v>1.033986879992691</v>
       </c>
       <c r="J17">
-        <v>0.9965704579402295</v>
+        <v>1.048865898742429</v>
       </c>
       <c r="K17">
-        <v>1.006750283463328</v>
+        <v>1.044230980388098</v>
       </c>
       <c r="L17">
-        <v>0.9981097326532306</v>
+        <v>1.052917335619225</v>
       </c>
       <c r="M17">
-        <v>0.9977159742963736</v>
+        <v>1.060896186972301</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9699348771121525</v>
+        <v>1.043092502292185</v>
       </c>
       <c r="D18">
-        <v>0.994119771918088</v>
+        <v>1.041142956261732</v>
       </c>
       <c r="E18">
-        <v>0.9856686845465216</v>
+        <v>1.049930939134834</v>
       </c>
       <c r="F18">
-        <v>0.9854771154753661</v>
+        <v>1.057978777033222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0330127540452</v>
+        <v>1.034057382900526</v>
       </c>
       <c r="J18">
-        <v>0.9981838829127484</v>
+        <v>1.049148606524112</v>
       </c>
       <c r="K18">
-        <v>1.008040783627346</v>
+        <v>1.044449300329842</v>
       </c>
       <c r="L18">
-        <v>0.9997394671683477</v>
+        <v>1.05320766393418</v>
       </c>
       <c r="M18">
-        <v>0.9995513317786356</v>
+        <v>1.061228850661203</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.970652131490091</v>
+        <v>1.043216355428199</v>
       </c>
       <c r="D19">
-        <v>0.9946306838876471</v>
+        <v>1.041231874377766</v>
       </c>
       <c r="E19">
-        <v>0.9862976972137465</v>
+        <v>1.050044359614786</v>
       </c>
       <c r="F19">
-        <v>0.9861771202935959</v>
+        <v>1.058106556558348</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033195012255322</v>
+        <v>1.034081379329437</v>
       </c>
       <c r="J19">
-        <v>0.9987302072290367</v>
+        <v>1.049244955871821</v>
       </c>
       <c r="K19">
-        <v>1.008477701905214</v>
+        <v>1.044523691828837</v>
       </c>
       <c r="L19">
-        <v>1.000291378634607</v>
+        <v>1.053306617016992</v>
       </c>
       <c r="M19">
-        <v>1.000172947520853</v>
+        <v>1.061342243572779</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9674247637552316</v>
+        <v>1.042662293735415</v>
       </c>
       <c r="D20">
-        <v>0.9923323819878617</v>
+        <v>1.04083405922642</v>
       </c>
       <c r="E20">
-        <v>0.9834682277549371</v>
+        <v>1.049536992327527</v>
       </c>
       <c r="F20">
-        <v>0.9830283684276551</v>
+        <v>1.05753498711329</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032373999402583</v>
+        <v>1.03397389097151</v>
       </c>
       <c r="J20">
-        <v>0.9962718465419549</v>
+        <v>1.048813874545088</v>
       </c>
       <c r="K20">
-        <v>1.006511410601031</v>
+        <v>1.044190798317523</v>
       </c>
       <c r="L20">
-        <v>0.9978081335934798</v>
+        <v>1.052863912211451</v>
       </c>
       <c r="M20">
-        <v>0.9973763557912096</v>
+        <v>1.060834978447236</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9565666516579104</v>
+        <v>1.040858104795176</v>
       </c>
       <c r="D21">
-        <v>0.984612157266132</v>
+        <v>1.039538018311732</v>
       </c>
       <c r="E21">
-        <v>0.9739648414888057</v>
+        <v>1.047885271131019</v>
       </c>
       <c r="F21">
-        <v>0.9724533816600383</v>
+        <v>1.055674793791766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029595842079464</v>
+        <v>1.03362142878825</v>
       </c>
       <c r="J21">
-        <v>0.9879996409244488</v>
+        <v>1.047409113796602</v>
       </c>
       <c r="K21">
-        <v>0.9998910414696588</v>
+        <v>1.043105038909277</v>
       </c>
       <c r="L21">
-        <v>0.9894568351735471</v>
+        <v>1.051421731393312</v>
       </c>
       <c r="M21">
-        <v>0.9879761263715702</v>
+        <v>1.059183216767349</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9494316493881106</v>
+        <v>1.039721472141338</v>
       </c>
       <c r="D22">
-        <v>0.9795502475379472</v>
+        <v>1.038721036102713</v>
       </c>
       <c r="E22">
-        <v>0.9677336625430396</v>
+        <v>1.046845016649588</v>
       </c>
       <c r="F22">
-        <v>0.9655197932640721</v>
+        <v>1.054503653239638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027758685954921</v>
+        <v>1.033397503852102</v>
       </c>
       <c r="J22">
-        <v>0.9825637534356489</v>
+        <v>1.046523330715005</v>
       </c>
       <c r="K22">
-        <v>0.9955380026248888</v>
+        <v>1.042419669330028</v>
       </c>
       <c r="L22">
-        <v>0.983972615778087</v>
+        <v>1.050512703232796</v>
       </c>
       <c r="M22">
-        <v>0.9818067173909479</v>
+        <v>1.058142649199402</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.953245195338662</v>
+        <v>1.040324241398519</v>
       </c>
       <c r="D23">
-        <v>0.9822545976233228</v>
+        <v>1.039154336167626</v>
       </c>
       <c r="E23">
-        <v>0.9710627747402948</v>
+        <v>1.04739664448864</v>
       </c>
       <c r="F23">
-        <v>0.9692241856588217</v>
+        <v>1.055124648839804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028741648677286</v>
+        <v>1.03351643125809</v>
       </c>
       <c r="J23">
-        <v>0.9854690976389197</v>
+        <v>1.046993146119551</v>
       </c>
       <c r="K23">
-        <v>0.9978648066995396</v>
+        <v>1.042783255762362</v>
       </c>
       <c r="L23">
-        <v>0.9869034483241749</v>
+        <v>1.050994814552325</v>
       </c>
       <c r="M23">
-        <v>0.9851033932472462</v>
+        <v>1.058694470406689</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9676019852960326</v>
+        <v>1.042692503622208</v>
       </c>
       <c r="D24">
-        <v>0.9924585457622729</v>
+        <v>1.040855752281336</v>
       </c>
       <c r="E24">
-        <v>0.983623543451701</v>
+        <v>1.049564654669631</v>
       </c>
       <c r="F24">
-        <v>0.983201206472244</v>
+        <v>1.057566147817943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03241914349529</v>
+        <v>1.03397976094024</v>
       </c>
       <c r="J24">
-        <v>0.9964068472788694</v>
+        <v>1.048837382896149</v>
       </c>
       <c r="K24">
-        <v>1.006619404904594</v>
+        <v>1.044208955779466</v>
       </c>
       <c r="L24">
-        <v>0.9979444838515296</v>
+        <v>1.052888052708425</v>
       </c>
       <c r="M24">
-        <v>0.9975298930354849</v>
+        <v>1.060862636621174</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9830924098177991</v>
+        <v>1.045431251036328</v>
       </c>
       <c r="D25">
-        <v>1.003503345845148</v>
+        <v>1.042821198021078</v>
       </c>
       <c r="E25">
-        <v>0.9972244595228998</v>
+        <v>1.05207320139463</v>
       </c>
       <c r="F25">
-        <v>0.9983387770093</v>
+        <v>1.060392930192735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036335561400718</v>
+        <v>1.034507420008806</v>
       </c>
       <c r="J25">
-        <v>1.008202493825234</v>
+        <v>1.050966686135081</v>
       </c>
       <c r="K25">
-        <v>1.016047519233247</v>
+        <v>1.045851823938286</v>
       </c>
       <c r="L25">
-        <v>1.009866015527916</v>
+        <v>1.055075451771201</v>
       </c>
       <c r="M25">
-        <v>1.010962936178967</v>
+        <v>1.063370125040097</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047608429025024</v>
+        <v>0.9946597993313797</v>
       </c>
       <c r="D2">
-        <v>1.044381863062638</v>
+        <v>1.011769781503682</v>
       </c>
       <c r="E2">
-        <v>1.054068460966527</v>
+        <v>1.007413174410073</v>
       </c>
       <c r="F2">
-        <v>1.062642762355889</v>
+        <v>1.00968315953563</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034920297112269</v>
+        <v>1.03921495774597</v>
       </c>
       <c r="J2">
-        <v>1.052656590605688</v>
+        <v>1.017001416575662</v>
       </c>
       <c r="K2">
-        <v>1.047153071356502</v>
+        <v>1.023067544127123</v>
       </c>
       <c r="L2">
-        <v>1.056812690318958</v>
+        <v>1.018770189084566</v>
       </c>
       <c r="M2">
-        <v>1.065363555061269</v>
+        <v>1.021009220976925</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049185259509894</v>
+        <v>1.002664995299845</v>
       </c>
       <c r="D3">
-        <v>1.045511126727465</v>
+        <v>1.017497598327999</v>
       </c>
       <c r="E3">
-        <v>1.055514147769661</v>
+        <v>1.014480393005853</v>
       </c>
       <c r="F3">
-        <v>1.064273750346214</v>
+        <v>1.017555444765263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035215496809748</v>
+        <v>1.041179769785447</v>
       </c>
       <c r="J3">
-        <v>1.053878881405362</v>
+        <v>1.023083272566631</v>
       </c>
       <c r="K3">
-        <v>1.048092731787553</v>
+        <v>1.027911384238564</v>
       </c>
       <c r="L3">
-        <v>1.058069929759843</v>
+        <v>1.024931287341659</v>
       </c>
       <c r="M3">
-        <v>1.066807348783989</v>
+        <v>1.027968521899881</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050203793147684</v>
+        <v>1.007680408613943</v>
       </c>
       <c r="D4">
-        <v>1.046240063579248</v>
+        <v>1.021088352699286</v>
       </c>
       <c r="E4">
-        <v>1.056448248816177</v>
+        <v>1.018914895338835</v>
       </c>
       <c r="F4">
-        <v>1.065327974101146</v>
+        <v>1.022496947847721</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035404403034406</v>
+        <v>1.042397341031818</v>
       </c>
       <c r="J4">
-        <v>1.054667647215959</v>
+        <v>1.026889668519867</v>
       </c>
       <c r="K4">
-        <v>1.048698405076114</v>
+        <v>1.030938751700814</v>
       </c>
       <c r="L4">
-        <v>1.058881578580478</v>
+        <v>1.028790270778335</v>
       </c>
       <c r="M4">
-        <v>1.067739965838105</v>
+        <v>1.032331229850171</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050631567642782</v>
+        <v>1.00975187231996</v>
       </c>
       <c r="D5">
-        <v>1.046546089941671</v>
+        <v>1.022571775396102</v>
       </c>
       <c r="E5">
-        <v>1.05684062825651</v>
+        <v>1.020747956679325</v>
       </c>
       <c r="F5">
-        <v>1.065770907049535</v>
+        <v>1.024540059879891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035483316578883</v>
+        <v>1.042896924804695</v>
       </c>
       <c r="J5">
-        <v>1.054998739537171</v>
+        <v>1.028460744401015</v>
       </c>
       <c r="K5">
-        <v>1.048952472852035</v>
+        <v>1.032187235033083</v>
       </c>
       <c r="L5">
-        <v>1.059222355373945</v>
+        <v>1.030383769983618</v>
       </c>
       <c r="M5">
-        <v>1.068131659719771</v>
+        <v>1.034133653605139</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050703368677852</v>
+        <v>1.010097574241939</v>
       </c>
       <c r="D6">
-        <v>1.046597448723947</v>
+        <v>1.022819358181254</v>
       </c>
       <c r="E6">
-        <v>1.056906492147342</v>
+        <v>1.021053959275743</v>
       </c>
       <c r="F6">
-        <v>1.065845262291988</v>
+        <v>1.024881156210773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03549653709225</v>
+        <v>1.042980103144034</v>
       </c>
       <c r="J6">
-        <v>1.055054301994996</v>
+        <v>1.028722874365593</v>
       </c>
       <c r="K6">
-        <v>1.048995099423451</v>
+        <v>1.032395478200121</v>
       </c>
       <c r="L6">
-        <v>1.05927954767925</v>
+        <v>1.03064968347009</v>
       </c>
       <c r="M6">
-        <v>1.068197404894331</v>
+        <v>1.03443448572216</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050209510718585</v>
+        <v>1.007708230098157</v>
       </c>
       <c r="D7">
-        <v>1.046244154356771</v>
+        <v>1.021108275021934</v>
       </c>
       <c r="E7">
-        <v>1.056453493044084</v>
+        <v>1.018939508960407</v>
       </c>
       <c r="F7">
-        <v>1.065333893614205</v>
+        <v>1.022524380023973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03540545945365</v>
+        <v>1.042404064011311</v>
       </c>
       <c r="J7">
-        <v>1.054672073262721</v>
+        <v>1.026910773596607</v>
       </c>
       <c r="K7">
-        <v>1.04870180212539</v>
+        <v>1.030955527444418</v>
       </c>
       <c r="L7">
-        <v>1.058886133778266</v>
+        <v>1.028811674234847</v>
       </c>
       <c r="M7">
-        <v>1.067745201147536</v>
+        <v>1.032355435861137</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048141700714155</v>
+        <v>0.9974007427758311</v>
       </c>
       <c r="D8">
-        <v>1.044763873339296</v>
+        <v>1.013730408062964</v>
       </c>
       <c r="E8">
-        <v>1.054557322826591</v>
+        <v>1.009831470914418</v>
       </c>
       <c r="F8">
-        <v>1.063194202664956</v>
+        <v>1.01237657018697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035020498834129</v>
+        <v>1.039890489248288</v>
       </c>
       <c r="J8">
-        <v>1.053070116452544</v>
+        <v>1.019084613573651</v>
       </c>
       <c r="K8">
-        <v>1.047471123740856</v>
+        <v>1.024727549557761</v>
       </c>
       <c r="L8">
-        <v>1.057237971592182</v>
+        <v>1.020879895363547</v>
       </c>
       <c r="M8">
-        <v>1.065851830979738</v>
+        <v>1.023391462677889</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044483893126027</v>
+        <v>0.9778588428438125</v>
       </c>
       <c r="D9">
-        <v>1.04214160373407</v>
+        <v>0.9997681815515117</v>
       </c>
       <c r="E9">
-        <v>1.051205302516635</v>
+        <v>0.9926237194216897</v>
       </c>
       <c r="F9">
-        <v>1.059414704751302</v>
+        <v>0.9932176415866764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034325917899638</v>
+        <v>1.035019331257072</v>
       </c>
       <c r="J9">
-        <v>1.050230572266004</v>
+        <v>1.004218441456155</v>
       </c>
       <c r="K9">
-        <v>1.045284276116232</v>
+        <v>1.012865020968279</v>
       </c>
       <c r="L9">
-        <v>1.054319063610507</v>
+        <v>1.005837616145548</v>
       </c>
       <c r="M9">
-        <v>1.062502746099586</v>
+        <v>1.006421724703828</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042035309320701</v>
+        <v>0.9637133303824712</v>
       </c>
       <c r="D10">
-        <v>1.040383773376753</v>
+        <v>0.9896913434978063</v>
       </c>
       <c r="E10">
-        <v>1.048962920825392</v>
+        <v>0.9802170646894933</v>
       </c>
       <c r="F10">
-        <v>1.056888366954754</v>
+        <v>0.979410500004691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033851825778358</v>
+        <v>1.031427031472718</v>
       </c>
       <c r="J10">
-        <v>1.048325875183271</v>
+        <v>0.9934444679866076</v>
       </c>
       <c r="K10">
-        <v>1.043813782017492</v>
+        <v>1.004249252247651</v>
       </c>
       <c r="L10">
-        <v>1.052362834888256</v>
+        <v>0.9949529350239821</v>
       </c>
       <c r="M10">
-        <v>1.060260957184982</v>
+        <v>0.9941617286201113</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040972530728777</v>
+        <v>0.9572718798214064</v>
       </c>
       <c r="D11">
-        <v>1.039620244514013</v>
+        <v>0.9851129788614661</v>
       </c>
       <c r="E11">
-        <v>1.047990008384568</v>
+        <v>0.9745813249718404</v>
       </c>
       <c r="F11">
-        <v>1.055792726526435</v>
+        <v>0.9731393588913841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033643892218008</v>
+        <v>1.029776963899508</v>
       </c>
       <c r="J11">
-        <v>1.047498253127325</v>
+        <v>0.9885369424245143</v>
       </c>
       <c r="K11">
-        <v>1.043173978901835</v>
+        <v>1.000321211482384</v>
       </c>
       <c r="L11">
-        <v>1.05151322477629</v>
+        <v>0.989999065895229</v>
       </c>
       <c r="M11">
-        <v>1.059287973336831</v>
+        <v>0.9885862500977438</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040577376525442</v>
+        <v>0.9548265394202816</v>
       </c>
       <c r="D12">
-        <v>1.039336271838596</v>
+        <v>0.9833767836591554</v>
       </c>
       <c r="E12">
-        <v>1.047628323429212</v>
+        <v>0.9724441543433938</v>
       </c>
       <c r="F12">
-        <v>1.055385487652794</v>
+        <v>0.9707612774307178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033566256014586</v>
+        <v>1.029148562889359</v>
       </c>
       <c r="J12">
-        <v>1.047190396723542</v>
+        <v>0.9866738821711515</v>
       </c>
       <c r="K12">
-        <v>1.04293585979148</v>
+        <v>0.9988295415236903</v>
       </c>
       <c r="L12">
-        <v>1.051197249847286</v>
+        <v>0.9881190327014557</v>
       </c>
       <c r="M12">
-        <v>1.058926212176779</v>
+        <v>0.9864709340012601</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040662156318248</v>
+        <v>0.9553535497111825</v>
       </c>
       <c r="D13">
-        <v>1.039397201528774</v>
+        <v>0.9837508718550362</v>
       </c>
       <c r="E13">
-        <v>1.047705919898048</v>
+        <v>0.9729046415147484</v>
       </c>
       <c r="F13">
-        <v>1.055472854133085</v>
+        <v>0.9712736718897713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033582927404178</v>
+        <v>1.029284080809927</v>
       </c>
       <c r="J13">
-        <v>1.047256453051141</v>
+        <v>0.9870754004270225</v>
       </c>
       <c r="K13">
-        <v>1.042986958421982</v>
+        <v>0.9991510385349133</v>
       </c>
       <c r="L13">
-        <v>1.051265045418319</v>
+        <v>0.9885241807586831</v>
       </c>
       <c r="M13">
-        <v>1.05900382724623</v>
+        <v>0.9869267580116466</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040939875200263</v>
+        <v>0.9570708549993069</v>
       </c>
       <c r="D14">
-        <v>1.039596778711433</v>
+        <v>0.9849702111050377</v>
       </c>
       <c r="E14">
-        <v>1.047960117608603</v>
+        <v>0.9744055860001368</v>
       </c>
       <c r="F14">
-        <v>1.055759069589815</v>
+        <v>0.9729438094299591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033637482968276</v>
+        <v>1.029725344221126</v>
       </c>
       <c r="J14">
-        <v>1.047472814662096</v>
+        <v>0.9883837849822078</v>
       </c>
       <c r="K14">
-        <v>1.043154305482135</v>
+        <v>1.000198593799324</v>
       </c>
       <c r="L14">
-        <v>1.051487114235841</v>
+        <v>0.9898445005313208</v>
       </c>
       <c r="M14">
-        <v>1.059258077277501</v>
+        <v>0.9884123286954922</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041110934824776</v>
+        <v>0.9581217922122557</v>
       </c>
       <c r="D15">
-        <v>1.039719696348988</v>
+        <v>0.9857166642204018</v>
       </c>
       <c r="E15">
-        <v>1.048116696908854</v>
+        <v>0.9753244261290843</v>
       </c>
       <c r="F15">
-        <v>1.055935380375001</v>
+        <v>0.9739662288106952</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033671043316778</v>
+        <v>1.029995126641667</v>
       </c>
       <c r="J15">
-        <v>1.047606063530184</v>
+        <v>0.9891844759782106</v>
       </c>
       <c r="K15">
-        <v>1.043257351349839</v>
+        <v>1.000839608198132</v>
       </c>
       <c r="L15">
-        <v>1.051623885968627</v>
+        <v>0.9906525772314617</v>
       </c>
       <c r="M15">
-        <v>1.059414682219369</v>
+        <v>0.9893216250032904</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042105788246933</v>
+        <v>0.9641337392997783</v>
       </c>
       <c r="D16">
-        <v>1.040434395603407</v>
+        <v>0.9899903948475975</v>
       </c>
       <c r="E16">
-        <v>1.049027448000087</v>
+        <v>0.9805851918914829</v>
       </c>
       <c r="F16">
-        <v>1.056961043845565</v>
+        <v>0.9798201418631967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03386556962877</v>
+        <v>1.031534443083419</v>
       </c>
       <c r="J16">
-        <v>1.04838074040696</v>
+        <v>0.9937647487761566</v>
       </c>
       <c r="K16">
-        <v>1.043856178411661</v>
+        <v>1.004505541648847</v>
       </c>
       <c r="L16">
-        <v>1.052419166237335</v>
+        <v>0.9952763251776798</v>
       </c>
       <c r="M16">
-        <v>1.060325482153172</v>
+        <v>0.9945257847630293</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042729149265117</v>
+        <v>0.9678167656767898</v>
       </c>
       <c r="D17">
-        <v>1.040882066338727</v>
+        <v>0.9926114540679338</v>
       </c>
       <c r="E17">
-        <v>1.049598210293363</v>
+        <v>0.9838117842459947</v>
       </c>
       <c r="F17">
-        <v>1.057603947419795</v>
+        <v>0.9834106846891264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033986879992691</v>
+        <v>1.032473845788374</v>
       </c>
       <c r="J17">
-        <v>1.048865898742429</v>
+        <v>0.9965704579402275</v>
       </c>
       <c r="K17">
-        <v>1.044230980388098</v>
+        <v>1.006750283463326</v>
       </c>
       <c r="L17">
-        <v>1.052917335619225</v>
+        <v>0.9981097326532287</v>
       </c>
       <c r="M17">
-        <v>1.060896186972301</v>
+        <v>0.9977159742963718</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043092502292185</v>
+        <v>0.9699348771121509</v>
       </c>
       <c r="D18">
-        <v>1.041142956261732</v>
+        <v>0.9941197719180866</v>
       </c>
       <c r="E18">
-        <v>1.049930939134834</v>
+        <v>0.9856686845465198</v>
       </c>
       <c r="F18">
-        <v>1.057978777033222</v>
+        <v>0.9854771154753648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034057382900526</v>
+        <v>1.033012754045199</v>
       </c>
       <c r="J18">
-        <v>1.049148606524112</v>
+        <v>0.9981838829127468</v>
       </c>
       <c r="K18">
-        <v>1.044449300329842</v>
+        <v>1.008040783627345</v>
       </c>
       <c r="L18">
-        <v>1.05320766393418</v>
+        <v>0.9997394671683463</v>
       </c>
       <c r="M18">
-        <v>1.061228850661203</v>
+        <v>0.9995513317786342</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043216355428199</v>
+        <v>0.9706521314900913</v>
       </c>
       <c r="D19">
-        <v>1.041231874377766</v>
+        <v>0.9946306838876473</v>
       </c>
       <c r="E19">
-        <v>1.050044359614786</v>
+        <v>0.9862976972137467</v>
       </c>
       <c r="F19">
-        <v>1.058106556558348</v>
+        <v>0.9861771202935963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034081379329437</v>
+        <v>1.033195012255323</v>
       </c>
       <c r="J19">
-        <v>1.049244955871821</v>
+        <v>0.9987302072290368</v>
       </c>
       <c r="K19">
-        <v>1.044523691828837</v>
+        <v>1.008477701905214</v>
       </c>
       <c r="L19">
-        <v>1.053306617016992</v>
+        <v>1.000291378634607</v>
       </c>
       <c r="M19">
-        <v>1.061342243572779</v>
+        <v>1.000172947520854</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042662293735415</v>
+        <v>0.9674247637552316</v>
       </c>
       <c r="D20">
-        <v>1.04083405922642</v>
+        <v>0.9923323819878614</v>
       </c>
       <c r="E20">
-        <v>1.049536992327527</v>
+        <v>0.9834682277549367</v>
       </c>
       <c r="F20">
-        <v>1.05753498711329</v>
+        <v>0.9830283684276546</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03397389097151</v>
+        <v>1.032373999402582</v>
       </c>
       <c r="J20">
-        <v>1.048813874545088</v>
+        <v>0.9962718465419544</v>
       </c>
       <c r="K20">
-        <v>1.044190798317523</v>
+        <v>1.006511410601031</v>
       </c>
       <c r="L20">
-        <v>1.052863912211451</v>
+        <v>0.9978081335934794</v>
       </c>
       <c r="M20">
-        <v>1.060834978447236</v>
+        <v>0.9973763557912093</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040858104795176</v>
+        <v>0.9565666516579102</v>
       </c>
       <c r="D21">
-        <v>1.039538018311732</v>
+        <v>0.9846121572661317</v>
       </c>
       <c r="E21">
-        <v>1.047885271131019</v>
+        <v>0.9739648414888055</v>
       </c>
       <c r="F21">
-        <v>1.055674793791766</v>
+        <v>0.9724533816600381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03362142878825</v>
+        <v>1.029595842079464</v>
       </c>
       <c r="J21">
-        <v>1.047409113796602</v>
+        <v>0.9879996409244487</v>
       </c>
       <c r="K21">
-        <v>1.043105038909277</v>
+        <v>0.9998910414696583</v>
       </c>
       <c r="L21">
-        <v>1.051421731393312</v>
+        <v>0.9894568351735471</v>
       </c>
       <c r="M21">
-        <v>1.059183216767349</v>
+        <v>0.9879761263715702</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039721472141338</v>
+        <v>0.9494316493881118</v>
       </c>
       <c r="D22">
-        <v>1.038721036102713</v>
+        <v>0.9795502475379478</v>
       </c>
       <c r="E22">
-        <v>1.046845016649588</v>
+        <v>0.9677336625430407</v>
       </c>
       <c r="F22">
-        <v>1.054503653239638</v>
+        <v>0.9655197932640733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033397503852102</v>
+        <v>1.027758685954921</v>
       </c>
       <c r="J22">
-        <v>1.046523330715005</v>
+        <v>0.9825637534356497</v>
       </c>
       <c r="K22">
-        <v>1.042419669330028</v>
+        <v>0.9955380026248896</v>
       </c>
       <c r="L22">
-        <v>1.050512703232796</v>
+        <v>0.983972615778088</v>
       </c>
       <c r="M22">
-        <v>1.058142649199402</v>
+        <v>0.9818067173909492</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040324241398519</v>
+        <v>0.9532451953386611</v>
       </c>
       <c r="D23">
-        <v>1.039154336167626</v>
+        <v>0.9822545976233226</v>
       </c>
       <c r="E23">
-        <v>1.04739664448864</v>
+        <v>0.9710627747402941</v>
       </c>
       <c r="F23">
-        <v>1.055124648839804</v>
+        <v>0.9692241856588213</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03351643125809</v>
+        <v>1.028741648677286</v>
       </c>
       <c r="J23">
-        <v>1.046993146119551</v>
+        <v>0.9854690976389187</v>
       </c>
       <c r="K23">
-        <v>1.042783255762362</v>
+        <v>0.997864806699539</v>
       </c>
       <c r="L23">
-        <v>1.050994814552325</v>
+        <v>0.9869034483241742</v>
       </c>
       <c r="M23">
-        <v>1.058694470406689</v>
+        <v>0.9851033932472455</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042692503622208</v>
+        <v>0.9676019852960335</v>
       </c>
       <c r="D24">
-        <v>1.040855752281336</v>
+        <v>0.9924585457622739</v>
       </c>
       <c r="E24">
-        <v>1.049564654669631</v>
+        <v>0.9836235434517017</v>
       </c>
       <c r="F24">
-        <v>1.057566147817943</v>
+        <v>0.983201206472245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03397976094024</v>
+        <v>1.032419143495291</v>
       </c>
       <c r="J24">
-        <v>1.048837382896149</v>
+        <v>0.9964068472788704</v>
       </c>
       <c r="K24">
-        <v>1.044208955779466</v>
+        <v>1.006619404904595</v>
       </c>
       <c r="L24">
-        <v>1.052888052708425</v>
+        <v>0.9979444838515303</v>
       </c>
       <c r="M24">
-        <v>1.060862636621174</v>
+        <v>0.9975298930354859</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045431251036328</v>
+        <v>0.9830924098177993</v>
       </c>
       <c r="D25">
-        <v>1.042821198021078</v>
+        <v>1.003503345845148</v>
       </c>
       <c r="E25">
-        <v>1.05207320139463</v>
+        <v>0.9972244595229001</v>
       </c>
       <c r="F25">
-        <v>1.060392930192735</v>
+        <v>0.9983387770093002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034507420008806</v>
+        <v>1.036335561400718</v>
       </c>
       <c r="J25">
-        <v>1.050966686135081</v>
+        <v>1.008202493825234</v>
       </c>
       <c r="K25">
-        <v>1.045851823938286</v>
+        <v>1.016047519233247</v>
       </c>
       <c r="L25">
-        <v>1.055075451771201</v>
+        <v>1.009866015527916</v>
       </c>
       <c r="M25">
-        <v>1.063370125040097</v>
+        <v>1.010962936178967</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
